--- a/pie_monte_carlo.xlsx
+++ b/pie_monte_carlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A47B4C-26BD-41E9-AD6B-DCDC626EB86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268ED4B4-A94E-4E34-B06A-FAC2868D111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17320" windowHeight="10910" xr2:uid="{932E2053-8BE4-4FE6-9F6F-E277A47A40C5}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +340,9 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1039,7 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" cm="1" vm="1">
+      <c r="H3" s="8" cm="1" vm="1">
         <f t="array" ref="H3">_xlfn._xlws.PY(0,1,E3,E4,E5,E6,E7,E8)</f>
         <v>100</v>
       </c>
@@ -1054,7 +1057,7 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" cm="1" vm="2">
+      <c r="H4" s="8" cm="1" vm="2">
         <f t="array" ref="H4">_xlfn._xlws.PY(1,1)</f>
         <v>0.5</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" cm="1" vm="3">
+      <c r="H5" s="8" cm="1" vm="3">
         <f t="array" ref="H5">_xlfn._xlws.PY(2,1)</f>
         <v>0</v>
       </c>
@@ -1090,7 +1093,7 @@
       <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" cm="1" vm="3">
+      <c r="H6" s="8" cm="1" vm="3">
         <f t="array" ref="H6">_xlfn._xlws.PY(3,1)</f>
         <v>0</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="e" cm="1" vm="4">
+      <c r="H7" s="8" t="e" cm="1" vm="4">
         <f t="array" ref="H7">_xlfn._xlws.PY(4,1)</f>
         <v>#VALUE!</v>
       </c>
@@ -1126,7 +1129,7 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" cm="1" vm="3">
+      <c r="H8" s="8" cm="1" vm="3">
         <f t="array" ref="H8">_xlfn._xlws.PY(5,1)</f>
         <v>0</v>
       </c>
@@ -1135,7 +1138,7 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="e" cm="1" vm="5">
+      <c r="H9" s="8" t="e" cm="1" vm="5">
         <f t="array" ref="H9">_xlfn._xlws.PY(6,1)</f>
         <v>#VALUE!</v>
       </c>
